--- a/groeisnelheid.xlsx
+++ b/groeisnelheid.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
   <si>
     <t>patient</t>
   </si>
@@ -1627,19 +1627,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1668,7 +1669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -1696,8 +1697,12 @@
       <c r="I2">
         <v>0.270445981309966</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <f>IF(G2=1,F2,"")</f>
+        <v>0.13466820519624001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1725,8 +1730,12 @@
       <c r="I3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f t="shared" ref="J3:J35" si="0">IF(G3=1,F3,"")</f>
+        <v>2.1733825149425998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1754,8 +1763,12 @@
       <c r="I4">
         <v>6.1360806467644101E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1783,8 +1796,12 @@
       <c r="I5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>2.6740060811861199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1812,8 +1829,12 @@
       <c r="I6">
         <v>0.490103973573291</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.247007661797113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1841,8 +1862,12 @@
       <c r="I7">
         <v>0.14542047735963601</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>7.4812475267170803E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1870,8 +1895,12 @@
       <c r="I8">
         <v>0.155710016749733</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>7.9811469325566806E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1899,8 +1928,12 @@
       <c r="I9">
         <v>0.98767139011524696</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.31638898831901702</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1928,8 +1961,12 @@
       <c r="I10">
         <v>0.28406410960852702</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.25913144507987801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1957,8 +1994,12 @@
       <c r="I11">
         <v>0.35703192225496599</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.30103542591710097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1986,8 +2027,12 @@
       <c r="I12">
         <v>0.30665996355124597</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2015,8 +2060,12 @@
       <c r="I13">
         <v>4.2237931360124097E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2044,8 +2093,12 @@
       <c r="I14">
         <v>1.2656120683527301</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2073,8 +2126,12 @@
       <c r="I15">
         <v>0.213036786368382</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2102,8 +2159,12 @@
       <c r="I16">
         <v>4.8205544807187302</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>1.36600697492402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2131,8 +2192,12 @@
       <c r="I17">
         <v>11.9452292859796</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>1.94498493570946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2160,8 +2225,12 @@
       <c r="I18">
         <v>9.4598841296462695</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>1.1658309400664699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2177,9 +2246,6 @@
       <c r="E19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
       <c r="G19">
         <v>0</v>
       </c>
@@ -2189,8 +2255,12 @@
       <c r="I19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2206,9 +2276,6 @@
       <c r="E20" t="s">
         <v>12</v>
       </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
       <c r="G20">
         <v>0</v>
       </c>
@@ -2218,8 +2285,12 @@
       <c r="I20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -2247,8 +2318,12 @@
       <c r="I21">
         <v>0.988179737270798</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2276,8 +2351,12 @@
       <c r="I22">
         <v>5.4024539812288896</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1.3969577818268699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>19</v>
       </c>
@@ -2305,8 +2384,12 @@
       <c r="I23">
         <v>4.7438919824522502E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>3.9158214653898502E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>20</v>
       </c>
@@ -2334,8 +2417,12 @@
       <c r="I24">
         <v>2.1274342112853399</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>1.6239538140199099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>21</v>
       </c>
@@ -2363,8 +2450,12 @@
       <c r="I25">
         <v>0.12771374747684</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>22</v>
       </c>
@@ -2380,9 +2471,6 @@
       <c r="E26" t="s">
         <v>12</v>
       </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
       <c r="G26">
         <v>0</v>
       </c>
@@ -2392,8 +2480,12 @@
       <c r="I26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -2421,8 +2513,12 @@
       <c r="I27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>14.022680412254999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>24</v>
       </c>
@@ -2450,8 +2546,12 @@
       <c r="I28">
         <v>0.27846969527764398</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0.191582129397697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24</v>
       </c>
@@ -2479,8 +2579,12 @@
       <c r="I29">
         <v>0.11468635723046</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>9.7087451168217195E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>24</v>
       </c>
@@ -2508,8 +2612,12 @@
       <c r="I30">
         <v>0.84611363362040803</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
@@ -2537,8 +2645,12 @@
       <c r="I31">
         <v>269.86091217331199</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>25</v>
       </c>
@@ -2566,8 +2678,12 @@
       <c r="I32">
         <v>2.6355359948000099</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>1.6106857427788299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>26</v>
       </c>
@@ -2583,9 +2699,6 @@
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
       <c r="G33">
         <v>0</v>
       </c>
@@ -2595,8 +2708,12 @@
       <c r="I33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>26</v>
       </c>
@@ -2624,8 +2741,12 @@
       <c r="I34">
         <v>1.2291154998662199</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>1.0142687682039799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>26</v>
       </c>
@@ -2652,6 +2773,22 @@
       </c>
       <c r="I35">
         <v>0.142072060713544</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>7.8344789525567796E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <f>AVERAGE(J2:J35)</f>
+        <v>1.4672279153124157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <f>MEDIAN(J2:J35)</f>
+        <v>0.31638898831901702</v>
       </c>
     </row>
   </sheetData>
